--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -16,106 +16,106 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>元件名称</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
     <t>冷负荷</t>
   </si>
   <si>
-    <t>产冷量</t>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>热收入</t>
   </si>
   <si>
     <t>设备台数</t>
   </si>
   <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
     <t>设备维护费用</t>
   </si>
   <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>元件名称</t>
-  </si>
-  <si>
-    <t>电收入</t>
+    <t>柴油</t>
+  </si>
+  <si>
+    <t>光伏发电</t>
+  </si>
+  <si>
+    <t>风力发电</t>
+  </si>
+  <si>
+    <t>柴油发电</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>变压器</t>
+  </si>
+  <si>
+    <t>变流器</t>
+  </si>
+  <si>
+    <t>双向变流器</t>
+  </si>
+  <si>
+    <t>传输线</t>
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>柴油</t>
-  </si>
-  <si>
-    <t>光伏发电</t>
-  </si>
-  <si>
-    <t>风力发电</t>
-  </si>
-  <si>
-    <t>柴油发电</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>变压器</t>
-  </si>
-  <si>
-    <t>变流器</t>
-  </si>
-  <si>
-    <t>双向变流器</t>
-  </si>
-  <si>
-    <t>传输线</t>
   </si>
 </sst>
 </file>
@@ -557,187 +557,187 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="X2" t="s">
-        <v>25</v>
+      <c r="K2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="V3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" t="s">
-        <v>20</v>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" t="s">
-        <v>24</v>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
       </c>
       <c r="X5" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
+      <c r="E6" t="s">
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" t="s">
+        <v>33</v>
       </c>
       <c r="X6" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
+        <v>33</v>
       </c>
       <c r="X7" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" t="s">
+        <v>33</v>
       </c>
       <c r="X8" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" t="s">
+        <v>33</v>
       </c>
       <c r="X9" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" t="s">
+        <v>33</v>
       </c>
       <c r="X10" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" t="s">
+        <v>33</v>
       </c>
       <c r="X11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -16,76 +16,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
+    <t>元件名称</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
     <t>产热量</t>
   </si>
   <si>
     <t>蒸汽产量</t>
   </si>
   <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>元件名称</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
+    <t>设备台数</t>
   </si>
   <si>
     <t>产冷量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
   </si>
   <si>
     <t>柴油</t>
@@ -473,271 +473,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="P7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="P8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="P9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="P10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="P11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
     <t>氢气收入</t>
   </si>
   <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
     <t>蒸汽负荷</t>
   </si>
   <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
   </si>
   <si>
     <t>氢气产量</t>
   </si>
   <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
     <t>热负荷</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>产冷量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="K2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
     <t>产冷量</t>
   </si>
   <si>
     <t>产电量</t>
   </si>
   <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
     <t>产热量</t>
   </si>
   <si>
-    <t>设备台数</t>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>冷收入</t>
   </si>
   <si>
     <t>设备型号</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="V4" t="s">
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="V5" t="s">
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" t="s">
         <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="V7" t="s">
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="V8" t="s">
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
       <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="V9" t="s">
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
       <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="V10" t="s">
+      <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
       <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="V11" t="s">
+      <c r="P11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
     <t>热负荷</t>
   </si>
   <si>
-    <t>氢气消耗量</t>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>产热量</t>
   </si>
   <si>
     <t>冷负荷</t>
   </si>
   <si>
+    <t>冷收入</t>
+  </si>
+  <si>
     <t>产冷量</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>设备型号</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
     <t>设备台数</t>
   </si>
   <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
     <t>天然气消耗量</t>
   </si>
   <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
     <t>设备维护费用</t>
   </si>
   <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
     <t>设备型号</t>
   </si>
   <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
     <t>柴油消耗费用</t>
   </si>
   <si>
+    <t>电负荷</t>
+  </si>
+  <si>
     <t>氢气消耗量</t>
   </si>
   <si>
     <t>蒸汽负荷</t>
   </si>
   <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
     <t>平均效率/平均COP</t>
   </si>
   <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
     <t>氢气产量</t>
   </si>
   <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
     <t>冷负荷</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>产冷量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
       <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>33</v>
       </c>
       <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="S6" t="s">
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
     <t>冷收入</t>
   </si>
   <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
   </si>
   <si>
     <t>蒸汽产量</t>
   </si>
   <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>设备型号</t>
+    <t>热收入</t>
   </si>
   <si>
     <t>氢气收入</t>
   </si>
   <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>热收入</t>
+    <t>冷负荷</t>
   </si>
   <si>
     <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
     <t>天然气消耗费用</t>
   </si>
   <si>
-    <t>设备台数</t>
-  </si>
-  <si>
     <t>电收入</t>
   </si>
   <si>
+    <t>电负荷</t>
+  </si>
+  <si>
     <t>产热量</t>
   </si>
   <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
     <t>氢气收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
       </c>
       <c r="O4" t="s">
         <v>33</v>
       </c>
-      <c r="S4" t="s">
+      <c r="R4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
         <v>33</v>
       </c>
       <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="S5" t="s">
+      <c r="R5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>33</v>
       </c>
       <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="S6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="R6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
     <t>平均效率/平均COP</t>
   </si>
   <si>
-    <t>蒸汽收入</t>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
   </si>
   <si>
     <t>冷收入</t>
   </si>
   <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
     <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="X2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
     <t>电负荷</t>
   </si>
   <si>
-    <t>产电量</t>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>设备台数</t>
   </si>
   <si>
     <t>设备型号</t>
   </si>
   <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
     <t>产热量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="X2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
         <v>33</v>
       </c>
       <c r="V4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
         <v>33</v>
       </c>
       <c r="V5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
         <v>33</v>
       </c>
       <c r="V6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
       <c r="V7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
         <v>33</v>
       </c>
       <c r="V8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
         <v>33</v>
       </c>
       <c r="V9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
         <v>33</v>
       </c>
       <c r="V10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
         <v>33</v>
       </c>
       <c r="V11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
     <t>氢气产量</t>
   </si>
   <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
     <t>氢气消耗量</t>
   </si>
   <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>电收入</t>
+    <t>天然气消耗量</t>
   </si>
   <si>
     <t>热负荷</t>
   </si>
   <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
     <t>设备型号</t>
-  </si>
-  <si>
-    <t>产热量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="T2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
       <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
     <t>柴油消耗量</t>
   </si>
   <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
+    <t>热负荷</t>
   </si>
   <si>
     <t>电负荷</t>
   </si>
   <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
     <t>冷负荷</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>设备型号</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,19 +610,19 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
         <v>33</v>
       </c>
       <c r="R6" t="s">
         <v>33</v>
       </c>
-      <c r="X6" t="s">
+      <c r="U6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
         <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
         <v>33</v>
       </c>
       <c r="R8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
         <v>33</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
         <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" t="s">
         <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -22,70 +22,70 @@
     <t>设备维护费用</t>
   </si>
   <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
     <t>氢气产量</t>
   </si>
   <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
     <t>蒸汽负荷</t>
   </si>
   <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
+    <t>蒸汽收入</t>
   </si>
   <si>
     <t>冷收入</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,13 +576,13 @@
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>33</v>
       </c>
       <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,13 +593,13 @@
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>33</v>
       </c>
       <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,10 +610,10 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
         <v>33</v>
       </c>
       <c r="O6" t="s">
@@ -622,7 +622,7 @@
       <c r="R6" t="s">
         <v>33</v>
       </c>
-      <c r="U6" t="s">
+      <c r="T6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,13 +633,13 @@
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,13 +650,13 @@
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,13 +667,13 @@
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,13 +684,13 @@
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,13 +701,13 @@
       <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
     <t>设备维护费用</t>
   </si>
   <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
     <t>柴油消耗费用</t>
   </si>
   <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
     <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>冷收入</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,10 +573,10 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
       <c r="O4" t="s">
@@ -590,10 +590,10 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
       </c>
       <c r="O5" t="s">
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
         <v>33</v>
       </c>
       <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
       <c r="T6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
       </c>
       <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="T8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
       </c>
       <c r="T9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
         <v>33</v>
       </c>
       <c r="T10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
         <v>33</v>
       </c>
       <c r="T11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
     <t>产热量</t>
   </si>
   <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
     <t>蒸汽收入</t>
   </si>
   <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
     <t>产冷量</t>
   </si>
   <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
     <t>氢气收入</t>
   </si>
   <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
     <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,13 +573,13 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
       </c>
       <c r="T4" t="s">
@@ -590,13 +590,13 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
         <v>33</v>
       </c>
       <c r="T5" t="s">
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
       <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
         <v>33</v>
       </c>
       <c r="T6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
       <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
       <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
       <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -25,67 +25,67 @@
     <t>蒸汽产量</t>
   </si>
   <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
     <t>产热量</t>
   </si>
   <si>
-    <t>平均效率/平均COP</t>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
   </si>
   <si>
     <t>天然气消耗费用</t>
   </si>
   <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
     <t>产电量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="R2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,13 +576,13 @@
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,13 +593,13 @@
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -613,16 +613,16 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -636,10 +636,10 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -653,10 +653,10 @@
       <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -670,10 +670,10 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -687,10 +687,10 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -704,10 +704,10 @@
       <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="P11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
     <t>设备型号</t>
   </si>
   <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
     <t>蒸汽产量</t>
   </si>
   <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>电收入</t>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
   </si>
   <si>
     <t>电负荷</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>产电量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
         <v>33</v>
       </c>
       <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="X4" t="s">
+      <c r="R4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
         <v>33</v>
       </c>
       <c r="P5" t="s">
         <v>33</v>
       </c>
-      <c r="X5" t="s">
+      <c r="R5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
         <v>33</v>
       </c>
       <c r="P6" t="s">
         <v>33</v>
       </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
       <c r="S6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
         <v>33</v>
       </c>
       <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="S7" t="s">
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
         <v>33</v>
       </c>
       <c r="P8" t="s">
         <v>33</v>
       </c>
-      <c r="S8" t="s">
+      <c r="Q8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
         <v>33</v>
       </c>
       <c r="P9" t="s">
         <v>33</v>
       </c>
-      <c r="S9" t="s">
+      <c r="Q9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
         <v>33</v>
       </c>
       <c r="P10" t="s">
         <v>33</v>
       </c>
-      <c r="S10" t="s">
+      <c r="Q10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
         <v>33</v>
       </c>
       <c r="P11" t="s">
         <v>33</v>
       </c>
-      <c r="S11" t="s">
+      <c r="Q11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
     <t>氢气收入</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,10 +573,10 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="P4" t="s">
@@ -590,10 +590,10 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
       <c r="P5" t="s">
@@ -607,10 +607,13 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
       <c r="P6" t="s">
@@ -620,9 +623,6 @@
         <v>33</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
       <c r="P7" t="s">
         <v>33</v>
       </c>
       <c r="Q7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="P8" t="s">
         <v>33</v>
       </c>
       <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="P9" t="s">
         <v>33</v>
       </c>
       <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="P10" t="s">
         <v>33</v>
       </c>
       <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="P11" t="s">
         <v>33</v>
       </c>
       <c r="Q11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
     <t>产电量</t>
   </si>
   <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>设备台数</t>
+    <t>蒸汽收入</t>
   </si>
   <si>
     <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="O4" t="s">
         <v>33</v>
       </c>
       <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
       <c r="P5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="O6" t="s">
         <v>33</v>
       </c>
       <c r="P6" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
       <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
       <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="O8" t="s">
         <v>33</v>
       </c>
       <c r="P8" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="O9" t="s">
         <v>33</v>
       </c>
       <c r="P9" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="O10" t="s">
         <v>33</v>
       </c>
       <c r="P10" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="O11" t="s">
         <v>33</v>
       </c>
       <c r="P11" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,10 +19,37 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
     <t>蒸汽负荷</t>
   </si>
   <si>
-    <t>柴油消耗费用</t>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
   </si>
   <si>
     <t>冷收入</t>
@@ -31,61 +58,34 @@
     <t>产热量</t>
   </si>
   <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>设备台数</t>
   </si>
   <si>
     <t>蒸汽产量</t>
   </si>
   <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
     <t>氢气产量</t>
   </si>
   <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>设备台数</t>
+    <t>平均效率/平均COP</t>
   </si>
   <si>
     <t>设备维护费用</t>
   </si>
   <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
     <t>产电量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,19 +607,19 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
         <v>33</v>
       </c>
       <c r="V6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" t="s">
         <v>33</v>
       </c>
       <c r="X6" t="s">
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="O7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="O8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="O9" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="O10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="O11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
     <t>柴油消耗量</t>
   </si>
   <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>产冷量</t>
   </si>
   <si>
     <t>热负荷</t>
   </si>
   <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
     <t>蒸汽负荷</t>
   </si>
   <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
     <t>产热量</t>
   </si>
   <si>
     <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>产电量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
       <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
       <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
       </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
       <c r="Q6" t="s">
         <v>33</v>
       </c>
-      <c r="V6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="S6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
         <v>33</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="V7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="S7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
         <v>33</v>
       </c>
       <c r="Q8" t="s">
         <v>33</v>
       </c>
-      <c r="V8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="S8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
         <v>33</v>
       </c>
       <c r="Q9" t="s">
         <v>33</v>
       </c>
-      <c r="V9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="S9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="H10" t="s">
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
         <v>33</v>
       </c>
       <c r="Q10" t="s">
         <v>33</v>
       </c>
-      <c r="V10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="S10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="H11" t="s">
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
         <v>33</v>
       </c>
       <c r="Q11" t="s">
         <v>33</v>
       </c>
-      <c r="V11" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="S11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
     <t>柴油消耗费用</t>
   </si>
   <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
     <t>天然气消耗费用</t>
   </si>
   <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
     <t>氢气消耗量</t>
   </si>
   <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
     <t>热收入</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="J2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
     <t>电负荷</t>
   </si>
   <si>
-    <t>蒸汽负荷</t>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>产冷量</t>
   </si>
   <si>
     <t>电收入</t>
   </si>
   <si>
-    <t>产电量</t>
-  </si>
-  <si>
     <t>蒸汽收入</t>
   </si>
   <si>
-    <t>产冷量</t>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>产热量</t>
   </si>
   <si>
     <t>冷收入</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>热收入</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
     <t>设备维护费用</t>
   </si>
   <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
     <t>天然气消耗费用</t>
   </si>
   <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>电负荷</t>
+    <t>热收入</t>
   </si>
   <si>
     <t>热负荷</t>
   </si>
   <si>
     <t>氢气产量</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,19 +610,19 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
         <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,13 +633,13 @@
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,13 +650,13 @@
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,13 +667,13 @@
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,13 +684,13 @@
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,13 +701,13 @@
       <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
     <t>平均效率/平均COP</t>
   </si>
   <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
     <t>电负荷</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
     <t>天然气消耗量</t>
   </si>
   <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
     <t>氢气消耗量</t>
   </si>
   <si>
-    <t>设备台数</t>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
   </si>
   <si>
     <t>热负荷</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>电负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
     <t>热收入</t>
   </si>
   <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
     <t>设备型号</t>
   </si>
   <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
   </si>
   <si>
     <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>热负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -563,9 +563,9 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
       <c r="K4" t="s">
         <v>33</v>
       </c>
       <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>33</v>
       </c>
       <c r="K5" t="s">
         <v>33</v>
       </c>
       <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,7 +610,7 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
       <c r="K6" t="s">
@@ -622,7 +622,7 @@
       <c r="Q6" t="s">
         <v>33</v>
       </c>
-      <c r="V6" t="s">
+      <c r="T6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,13 +633,13 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="V7" t="s">
+      <c r="T7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,13 +650,13 @@
       <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="Q8" t="s">
         <v>33</v>
       </c>
-      <c r="V8" t="s">
+      <c r="T8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,13 +667,13 @@
       <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
       <c r="Q9" t="s">
         <v>33</v>
       </c>
-      <c r="V9" t="s">
+      <c r="T9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,13 +684,13 @@
       <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>33</v>
       </c>
       <c r="Q10" t="s">
         <v>33</v>
       </c>
-      <c r="V10" t="s">
+      <c r="T10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,13 +701,13 @@
       <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>33</v>
       </c>
       <c r="Q11" t="s">
         <v>33</v>
       </c>
-      <c r="V11" t="s">
+      <c r="T11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
     <t>冷收入</t>
   </si>
   <si>
     <t>平均效率/平均COP</t>
   </si>
   <si>
-    <t>氢气产量</t>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
   </si>
   <si>
     <t>柴油消耗费用</t>
   </si>
   <si>
-    <t>热负荷</t>
+    <t>冷负荷</t>
   </si>
   <si>
     <t>设备台数</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="V2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>33</v>
       </c>
       <c r="Q4" t="s">
         <v>33</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
       <c r="Q5" t="s">
         <v>33</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
       <c r="K6" t="s">
         <v>33</v>
       </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
       <c r="O6" t="s">
         <v>33</v>
       </c>
       <c r="Q6" t="s">
         <v>33</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="K8" t="s">
         <v>33</v>
       </c>
       <c r="Q8" t="s">
         <v>33</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="K9" t="s">
         <v>33</v>
       </c>
       <c r="Q9" t="s">
         <v>33</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="K10" t="s">
         <v>33</v>
       </c>
       <c r="Q10" t="s">
         <v>33</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="K11" t="s">
         <v>33</v>
       </c>
       <c r="Q11" t="s">
         <v>33</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
     <t>产冷量</t>
   </si>
   <si>
-    <t>产热量</t>
-  </si>
-  <si>
     <t>蒸汽负荷</t>
   </si>
   <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
     <t>热负荷</t>
   </si>
   <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
     <t>氢气收入</t>
   </si>
   <si>
     <t>氢气消耗量</t>
   </si>
   <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
     <t>蒸汽产量</t>
   </si>
   <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
     <t>设备型号</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>设备台数</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="V2" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,13 +573,13 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
         <v>33</v>
       </c>
       <c r="X4" t="s">
@@ -590,13 +590,13 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
         <v>33</v>
       </c>
       <c r="X5" t="s">
@@ -607,19 +607,19 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
         <v>33</v>
       </c>
       <c r="Q6" t="s">
         <v>33</v>
       </c>
-      <c r="U6" t="s">
+      <c r="R6" t="s">
         <v>33</v>
       </c>
       <c r="X6" t="s">
@@ -630,13 +630,13 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" t="s">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s">
         <v>33</v>
       </c>
       <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" t="s">
         <v>33</v>
       </c>
       <c r="X7" t="s">
@@ -647,13 +647,13 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="K8" t="s">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" t="s">
         <v>33</v>
       </c>
       <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" t="s">
         <v>33</v>
       </c>
       <c r="X8" t="s">
@@ -664,13 +664,13 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="K9" t="s">
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
         <v>33</v>
       </c>
       <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" t="s">
         <v>33</v>
       </c>
       <c r="X9" t="s">
@@ -681,13 +681,13 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="K10" t="s">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
         <v>33</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" t="s">
         <v>33</v>
       </c>
       <c r="X10" t="s">
@@ -698,13 +698,13 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="K11" t="s">
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" t="s">
         <v>33</v>
       </c>
       <c r="Q11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" t="s">
         <v>33</v>
       </c>
       <c r="X11" t="s">

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
     <t>产热量</t>
   </si>
   <si>
-    <t>电收入</t>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
   </si>
   <si>
     <t>设备台数</t>
   </si>
   <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
     <t>冷负荷</t>
   </si>
   <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
     <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>设备型号</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="U2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
       <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="X4" t="s">
+      <c r="T4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
       <c r="P5" t="s">
         <v>33</v>
       </c>
-      <c r="X5" t="s">
+      <c r="T5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
       <c r="P6" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
     <t>电收入</t>
   </si>
   <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
     <t>电负荷</t>
   </si>
   <si>
-    <t>冷收入</t>
-  </si>
-  <si>
     <t>柴油消耗量</t>
   </si>
   <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
     <t>热收入</t>
   </si>
   <si>
     <t>热负荷</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="U2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,19 +607,19 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
         <v>33</v>
       </c>
       <c r="V6" t="s">
@@ -633,13 +633,13 @@
       <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,13 +650,13 @@
       <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="S8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,13 +667,13 @@
       <c r="H9" t="s">
         <v>33</v>
       </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,13 +684,13 @@
       <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="S10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,13 +701,13 @@
       <c r="H11" t="s">
         <v>33</v>
       </c>
-      <c r="S11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
     <t>产热量</t>
   </si>
   <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>设备台数</t>
+    <t>氢气收入</t>
   </si>
   <si>
     <t>蒸汽产量</t>
   </si>
   <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
     <t>蒸汽负荷</t>
   </si>
   <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
     <t>电收入</t>
   </si>
   <si>
     <t>电负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>热负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,13 +576,13 @@
       <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
         <v>33</v>
       </c>
       <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,13 +593,13 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
         <v>33</v>
       </c>
       <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
         <v>33</v>
       </c>
       <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="V6" t="s">
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
       <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
       <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
       </c>
       <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -22,70 +22,70 @@
     <t>平均效率/平均COP</t>
   </si>
   <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
     <t>冷负荷</t>
   </si>
   <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
     <t>设备维护费用</t>
   </si>
   <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
     <t>热负荷</t>
   </si>
   <si>
-    <t>天然气消耗费用</t>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
   </si>
   <si>
     <t>天然气消耗量</t>
   </si>
   <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>冷收入</t>
   </si>
   <si>
     <t>产电量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>电负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,19 +610,19 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
         <v>33</v>
       </c>
       <c r="M6" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,13 +633,13 @@
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,13 +650,13 @@
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,13 +667,13 @@
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,13 +684,13 @@
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,13 +701,13 @@
       <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
     <t>平均效率/平均COP</t>
   </si>
   <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
     <t>蒸汽收入</t>
   </si>
   <si>
-    <t>冷负荷</t>
+    <t>天然气消耗量</t>
   </si>
   <si>
     <t>设备台数</t>
   </si>
   <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
   </si>
   <si>
     <t>设备型号</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>产电量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="K2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,13 +573,13 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
         <v>33</v>
       </c>
       <c r="X4" t="s">
@@ -590,13 +590,13 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
         <v>33</v>
       </c>
       <c r="X5" t="s">
@@ -607,19 +607,19 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>33</v>
       </c>
       <c r="M6" t="s">
         <v>33</v>
       </c>
-      <c r="N6" t="s">
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" t="s">
         <v>33</v>
       </c>
       <c r="X6" t="s">
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
       <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
       <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
       <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
     <t>氢气消耗量</t>
   </si>
   <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
     <t>产热量</t>
   </si>
   <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
     <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>设备型号</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
         <v>33</v>
       </c>
       <c r="T6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
     <t>电负荷</t>
   </si>
   <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
     <t>氢气收入</t>
   </si>
   <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
     <t>氢气产量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,15 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +573,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +590,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +607,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +630,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +647,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +681,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +698,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -14,78 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>元件名称</t>
   </si>
   <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
     <t>电收入</t>
   </si>
   <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
     <t>冷收入</t>
   </si>
   <si>
-    <t>柴油消耗量</t>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
   </si>
   <si>
     <t>热负荷</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,15 +557,18 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -573,16 +576,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -590,16 +593,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -607,22 +610,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -630,16 +633,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -647,16 +650,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -664,16 +667,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -681,16 +684,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="M10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -698,16 +701,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
     <t>设备台数</t>
   </si>
   <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
   </si>
   <si>
     <t>氢气收入</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>热负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,7 +557,7 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -565,7 +565,7 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
+      <c r="H3" t="s">
         <v>33</v>
       </c>
       <c r="W3" t="s">
@@ -576,16 +576,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,16 +593,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,22 +610,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
       <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,16 +633,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,16 +650,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,16 +667,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,16 +684,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,16 +701,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
     <t>蒸汽产量</t>
   </si>
   <si>
+    <t>电负荷</t>
+  </si>
+  <si>
     <t>天然气消耗费用</t>
   </si>
   <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
     <t>蒸汽负荷</t>
   </si>
   <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
   </si>
   <si>
     <t>氢气产量</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,18 +557,18 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,16 +576,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,16 +593,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,22 +610,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
         <v>33</v>
       </c>
       <c r="R6" t="s">
         <v>33</v>
       </c>
-      <c r="S6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,16 +633,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
         <v>33</v>
       </c>
       <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,16 +650,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
         <v>33</v>
       </c>
       <c r="R8" t="s">
         <v>33</v>
       </c>
-      <c r="S8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,16 +667,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
         <v>33</v>
       </c>
       <c r="R9" t="s">
         <v>33</v>
       </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,16 +684,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
         <v>33</v>
       </c>
       <c r="R10" t="s">
         <v>33</v>
       </c>
-      <c r="S10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,16 +701,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
         <v>33</v>
       </c>
       <c r="R11" t="s">
         <v>33</v>
       </c>
-      <c r="S11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
     <t>产电量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,18 +557,18 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="T2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,7 +576,7 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="J4" t="s">
         <v>33</v>
       </c>
       <c r="N4" t="s">
@@ -585,7 +585,7 @@
       <c r="R4" t="s">
         <v>33</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,7 +593,7 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="J5" t="s">
         <v>33</v>
       </c>
       <c r="N5" t="s">
@@ -602,7 +602,7 @@
       <c r="R5" t="s">
         <v>33</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -613,7 +613,10 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
         <v>33</v>
       </c>
       <c r="N6" t="s">
@@ -622,10 +625,7 @@
       <c r="R6" t="s">
         <v>33</v>
       </c>
-      <c r="V6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,16 +633,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
         <v>33</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,16 +650,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
         <v>33</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
       </c>
       <c r="R8" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,16 +667,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
         <v>33</v>
       </c>
       <c r="N9" t="s">
         <v>33</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,16 +684,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
         <v>33</v>
       </c>
       <c r="N10" t="s">
         <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,16 +701,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
         <v>33</v>
       </c>
       <c r="N11" t="s">
         <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
     <t>平均效率/平均COP</t>
   </si>
   <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
     <t>热负荷</t>
   </si>
   <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>冷收入</t>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>电收入</t>
   </si>
   <si>
     <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>产电量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,18 +557,18 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="T2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,16 +576,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="K4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,16 +593,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
       <c r="J5" t="s">
         <v>33</v>
       </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="K5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,7 +610,13 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
         <v>33</v>
       </c>
       <c r="J6" t="s">
@@ -619,13 +625,7 @@
       <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="U6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,16 +633,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,16 +650,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,16 +667,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,16 +684,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,16 +701,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
     <t>冷收入</t>
   </si>
   <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
     <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,18 +557,18 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,16 +576,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,16 +593,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,22 +610,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
       <c r="I6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,16 +633,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
       <c r="I7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,16 +650,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,16 +667,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
       <c r="I9" t="s">
         <v>33</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,16 +684,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" t="s">
         <v>33</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,16 +701,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
       <c r="I11" t="s">
         <v>33</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>产电量</t>
+  </si>
+  <si>
     <t>氢气产量</t>
   </si>
   <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
     <t>热负荷</t>
   </si>
   <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
     <t>产热量</t>
   </si>
   <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
+    <t>电负荷</t>
   </si>
   <si>
     <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,18 +557,18 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,16 +576,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,16 +593,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
       <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,22 +610,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
       <c r="I6" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
         <v>33</v>
       </c>
       <c r="S6" t="s">
         <v>33</v>
       </c>
-      <c r="V6" t="s">
+      <c r="U6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -636,13 +636,13 @@
       <c r="I7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="J7" t="s">
         <v>33</v>
       </c>
       <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -653,13 +653,13 @@
       <c r="I8" t="s">
         <v>33</v>
       </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="J8" t="s">
         <v>33</v>
       </c>
       <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -670,13 +670,13 @@
       <c r="I9" t="s">
         <v>33</v>
       </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="J9" t="s">
         <v>33</v>
       </c>
       <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -687,13 +687,13 @@
       <c r="I10" t="s">
         <v>33</v>
       </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="J10" t="s">
         <v>33</v>
       </c>
       <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="I11" t="s">
         <v>33</v>
       </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="J11" t="s">
         <v>33</v>
       </c>
       <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
     <t>产电量</t>
   </si>
   <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
     <t>氢气产量</t>
   </si>
   <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>产冷量</t>
+    <t>天然气消耗量</t>
   </si>
   <si>
     <t>电收入</t>
   </si>
   <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
+    <t>平均效率/平均COP</t>
   </si>
   <si>
     <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,18 +557,18 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,16 +576,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,16 +593,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,22 +610,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
         <v>33</v>
       </c>
       <c r="N6" t="s">
         <v>33</v>
       </c>
-      <c r="S6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,16 +633,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,16 +650,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,16 +667,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,16 +684,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,16 +701,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
     <t>柴油消耗费用</t>
   </si>
   <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
+    <t>蒸汽产量</t>
   </si>
   <si>
     <t>冷负荷</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,18 +557,18 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="V2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,16 +576,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,16 +593,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,22 +610,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
         <v>33</v>
       </c>
       <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,16 +633,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,16 +650,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,16 +667,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,16 +684,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,16 +701,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,117 +441,117 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>热负荷</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>氢气收入</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
         </is>
       </c>
     </row>
@@ -598,22 +598,18 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -622,7 +618,11 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -637,14 +637,18 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>x</t>
@@ -652,12 +656,12 @@
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -665,11 +669,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
     </row>
@@ -683,14 +683,18 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>x</t>
@@ -698,12 +702,12 @@
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -711,11 +715,7 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
     </row>
@@ -729,31 +729,35 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -761,11 +765,7 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
@@ -783,7 +783,11 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -792,14 +796,18 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -807,17 +815,9 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -829,7 +829,11 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -838,14 +842,18 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -853,17 +861,9 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -875,7 +875,11 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -884,14 +888,18 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -899,17 +907,9 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -921,7 +921,11 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -930,14 +934,18 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -945,17 +953,9 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -967,7 +967,11 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -976,14 +980,18 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -991,17 +999,9 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
     <t>热收入</t>
   </si>
   <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>设备台数</t>
   </si>
   <si>
     <t>产冷量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>设备台数</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,18 +557,18 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,16 +576,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
         <v>33</v>
       </c>
       <c r="W4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,16 +593,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
         <v>33</v>
       </c>
       <c r="W5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,22 +610,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
         <v>33</v>
       </c>
       <c r="W6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,16 +633,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
         <v>33</v>
       </c>
       <c r="W7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,16 +650,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
         <v>33</v>
       </c>
       <c r="W8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,16 +667,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
         <v>33</v>
       </c>
       <c r="W9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,16 +684,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
         <v>33</v>
       </c>
       <c r="W10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,16 +701,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
         <v>33</v>
       </c>
       <c r="W11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
     <t>天然气消耗量</t>
   </si>
   <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
     <t>蒸汽产量</t>
   </si>
   <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
     <t>氢气产量</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>产冷量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,18 +557,18 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,16 +576,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="U4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,16 +593,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
       <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="U5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,22 +610,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
       <c r="I6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,16 +633,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
       <c r="I7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,16 +650,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="T8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,16 +667,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
       <c r="I9" t="s">
         <v>33</v>
       </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="T9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,16 +684,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
       <c r="I10" t="s">
         <v>33</v>
       </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="T10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,16 +701,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
       <c r="I11" t="s">
         <v>33</v>
       </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="T11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
     <t>设备型号</t>
   </si>
   <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
   </si>
   <si>
     <t>天然气消耗费用</t>
   </si>
   <si>
-    <t>冷收入</t>
-  </si>
-  <si>
     <t>产电量</t>
   </si>
   <si>
-    <t>电收入</t>
+    <t>蒸汽产量</t>
   </si>
   <si>
     <t>设备维护费用</t>
   </si>
   <si>
-    <t>天然气消耗量</t>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>产热量</t>
   </si>
   <si>
     <t>氢气消耗量</t>
   </si>
   <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
     <t>热负荷</t>
   </si>
   <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
     <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,18 +557,18 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="K2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,16 +576,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,16 +593,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,22 +610,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,16 +633,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,16 +650,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,16 +667,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,16 +684,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,16 +701,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
     <t>产冷量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,18 +557,18 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,16 +576,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,16 +593,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,22 +610,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,16 +633,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,16 +650,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,16 +667,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,16 +684,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,16 +701,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>元件名称</t>
   </si>
@@ -22,70 +22,70 @@
     <t>柴油消耗费用</t>
   </si>
   <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
     <t>天然气消耗量</t>
   </si>
   <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
     <t>平均效率/平均COP</t>
   </si>
   <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
   </si>
   <si>
     <t>热收入</t>
   </si>
   <si>
-    <t>设备型号</t>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
   </si>
   <si>
     <t>设备台数</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>产冷量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -560,15 +560,18 @@
       <c r="B2" t="s">
         <v>33</v>
       </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -576,16 +579,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
       <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="W4" t="s">
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -593,16 +596,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="G5" t="s">
         <v>33</v>
       </c>
       <c r="P5" t="s">
         <v>33</v>
       </c>
-      <c r="W5" t="s">
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -610,22 +613,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
       <c r="P6" t="s">
         <v>33</v>
       </c>
-      <c r="U6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -633,16 +636,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -650,16 +653,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -667,16 +670,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -684,16 +687,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -701,16 +704,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,70 +19,70 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
     <t>柴油消耗费用</t>
   </si>
   <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
     <t>冷收入</t>
   </si>
   <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>产热量</t>
+    <t>热收入</t>
   </si>
   <si>
     <t>产电量</t>
   </si>
   <si>
     <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
   </si>
   <si>
     <t>设备台数</t>
@@ -557,21 +557,21 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -579,13 +579,13 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="K4" t="s">
         <v>33</v>
       </c>
       <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" t="s">
         <v>33</v>
       </c>
       <c r="X4" t="s">
@@ -596,13 +596,13 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="K5" t="s">
         <v>33</v>
       </c>
       <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" t="s">
         <v>33</v>
       </c>
       <c r="X5" t="s">
@@ -613,19 +613,19 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
         <v>33</v>
       </c>
       <c r="S6" t="s">
         <v>33</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" t="s">
         <v>33</v>
       </c>
       <c r="X6" t="s">
@@ -636,13 +636,13 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
       <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
         <v>33</v>
       </c>
       <c r="X7" t="s">
@@ -653,13 +653,13 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="K8" t="s">
         <v>33</v>
       </c>
       <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" t="s">
         <v>33</v>
       </c>
       <c r="X8" t="s">
@@ -670,13 +670,13 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="K9" t="s">
         <v>33</v>
       </c>
       <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" t="s">
         <v>33</v>
       </c>
       <c r="X9" t="s">
@@ -687,13 +687,13 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="K10" t="s">
         <v>33</v>
       </c>
       <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" t="s">
         <v>33</v>
       </c>
       <c r="X10" t="s">
@@ -704,13 +704,13 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="K11" t="s">
         <v>33</v>
       </c>
       <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" t="s">
         <v>33</v>
       </c>
       <c r="X11" t="s">

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
     <t>天然气消耗费用</t>
   </si>
   <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
     <t>电收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>设备台数</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,21 +557,21 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -579,16 +579,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -596,16 +596,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -613,22 +613,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" t="s">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="S6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -636,16 +636,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -653,16 +653,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -670,16 +670,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -687,16 +687,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -704,16 +704,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
     <t>设备台数</t>
   </si>
   <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
+    <t>蒸汽负荷</t>
   </si>
   <si>
     <t>电负荷</t>
   </si>
   <si>
-    <t>冷负荷</t>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
   </si>
   <si>
     <t>产冷量</t>
   </si>
   <si>
     <t>热负荷</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>电收入</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,7 +557,7 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="K2" t="s">
         <v>33</v>
       </c>
       <c r="U2" t="s">
@@ -566,12 +566,12 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="X3" t="s">
+      <c r="S3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -579,16 +579,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -596,16 +596,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -613,22 +613,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
         <v>33</v>
       </c>
       <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -636,16 +636,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -653,16 +653,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -670,16 +670,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -687,16 +687,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -704,16 +704,16 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -14,78 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>元件名称</t>
   </si>
   <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
     <t>氢气消耗量</t>
   </si>
   <si>
-    <t>设备型号</t>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>设备台数</t>
   </si>
   <si>
     <t>氢气产量</t>
   </si>
   <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>电收入</t>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
   </si>
   <si>
     <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,10 +557,10 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -568,7 +568,7 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>33</v>
       </c>
       <c r="S3" t="s">
@@ -579,16 +579,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -596,16 +596,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -613,22 +613,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -636,16 +636,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -653,16 +653,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -670,16 +670,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -687,16 +687,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -704,16 +704,13 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,73 +19,73 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
     <t>蒸汽负荷</t>
   </si>
   <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
     <t>热负荷</t>
   </si>
   <si>
-    <t>产热量</t>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
   </si>
   <si>
     <t>天然气消耗费用</t>
   </si>
   <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
     <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -557,7 +557,7 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
       <c r="V2" t="s">
@@ -568,7 +568,7 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
         <v>33</v>
       </c>
       <c r="S3" t="s">
@@ -579,16 +579,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -596,16 +596,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -613,22 +613,22 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
       <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -636,16 +636,16 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -653,16 +653,16 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -670,16 +670,16 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -687,16 +687,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
         <v>33</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,122 +441,122 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>电负荷</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>平均效率/平均COP</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>冷负荷</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>蒸汽收入</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>电收入</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,11 @@
           <t>柴油</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -593,11 +597,7 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -620,7 +620,11 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -630,21 +634,17 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -652,42 +652,42 @@
           <t>光伏发电</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
           <t>x</t>
@@ -703,42 +703,42 @@
           <t>风力发电</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
           <t>x</t>
@@ -754,14 +754,14 @@
           <t>柴油发电</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
@@ -774,30 +774,30 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
           <t>x</t>
@@ -813,14 +813,14 @@
           <t>锂电池</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
@@ -834,26 +834,26 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
@@ -864,14 +864,14 @@
           <t>变压器</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
@@ -885,26 +885,26 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -915,14 +915,14 @@
           <t>变流器</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
@@ -936,26 +936,26 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
@@ -966,14 +966,14 @@
           <t>双向变流器</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
@@ -987,26 +987,26 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
@@ -1017,16 +1017,16 @@
           <t>传输线</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1034,26 +1034,26 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,122 +441,122 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>元件类型</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>氢气产量</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
         </is>
       </c>
     </row>
@@ -566,23 +566,19 @@
           <t>柴油</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -601,7 +597,11 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -620,12 +620,12 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -635,16 +635,16 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -652,36 +652,32 @@
           <t>光伏发电</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -693,7 +689,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -703,36 +703,32 @@
           <t>风力发电</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -744,7 +740,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -754,36 +754,36 @@
           <t>柴油发电</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>x</t>
@@ -792,18 +792,18 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>
@@ -813,48 +813,48 @@
           <t>锂电池</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
     </row>
@@ -864,48 +864,48 @@
           <t>变压器</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
     </row>
@@ -915,48 +915,48 @@
           <t>变流器</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
     </row>
@@ -966,48 +966,48 @@
           <t>双向变流器</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
     </row>
@@ -1017,44 +1017,44 @@
           <t>传输线</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,122 +441,122 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>电负荷</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
         </is>
       </c>
     </row>
@@ -571,37 +571,37 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -609,11 +609,7 @@
           <t>电负荷</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -621,11 +617,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -633,17 +625,25 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -654,29 +654,29 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -705,29 +705,29 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -756,42 +756,42 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
@@ -815,41 +815,41 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
           <t>x</t>
@@ -866,41 +866,41 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
           <t>x</t>
@@ -917,41 +917,41 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
           <t>x</t>
@@ -968,41 +968,41 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
           <t>x</t>
@@ -1019,37 +1019,37 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
           <t>x</t>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,122 +441,122 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>热收入</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>氢气收入</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>冷收入</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>产冷量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
         </is>
       </c>
     </row>
@@ -571,35 +571,35 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
     </row>
@@ -614,36 +614,36 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -663,32 +663,32 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
           <t>x</t>
@@ -714,32 +714,32 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
           <t>x</t>
@@ -765,46 +765,46 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -824,38 +824,38 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -875,38 +875,38 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -926,38 +926,38 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -977,38 +977,38 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1032,7 +1032,11 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>x</t>
@@ -1040,22 +1044,18 @@
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr"/>
     </row>
   </sheetData>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,122 +441,122 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>氢气消耗量</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>热收入</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>设备型号</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
         </is>
       </c>
     </row>
@@ -575,30 +575,30 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -609,39 +609,39 @@
           <t>电负荷</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
@@ -654,16 +654,20 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -672,30 +676,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -705,16 +705,20 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -723,30 +727,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -756,16 +756,24 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -774,38 +782,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -815,48 +815,48 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -866,48 +866,48 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -917,48 +917,48 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -968,48 +968,48 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1019,29 +1019,25 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1049,14 +1045,18 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,76 +19,76 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
     <t>产冷量</t>
   </si>
   <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>元件类型</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
     <t>热负荷</t>
   </si>
   <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
     <t>产热量</t>
   </si>
   <si>
     <t>电收入</t>
   </si>
   <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
     <t>柴油消耗量</t>
   </si>
   <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>元件类型</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
     <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -566,21 +566,21 @@
       <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
         <v>34</v>
       </c>
       <c r="S3" t="s">
@@ -591,19 +591,19 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -611,19 +611,19 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -631,25 +631,25 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -657,19 +657,19 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -677,19 +677,19 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -697,19 +697,19 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -717,19 +717,19 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" t="s">
-        <v>34</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -737,16 +737,16 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" t="s">
-        <v>34</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" t="s">
         <v>34</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,76 +19,76 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
     <t>产电量</t>
   </si>
   <si>
+    <t>元件类型</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
     <t>电负荷</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>元件类型</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -563,27 +563,27 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -591,19 +591,19 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -611,19 +611,19 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>34</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -631,25 +631,25 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -657,19 +657,19 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>34</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -677,19 +677,19 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>34</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -697,19 +697,19 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>34</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -717,19 +717,19 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>34</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -737,16 +737,16 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" t="s">
         <v>34</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,76 +19,76 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>元件类型</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
     <t>氢气产量</t>
   </si>
   <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
     <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>元件类型</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>电负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -563,27 +563,27 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -594,16 +594,16 @@
       <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -614,16 +614,16 @@
       <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -634,22 +634,22 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -660,16 +660,16 @@
       <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -680,16 +680,16 @@
       <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -700,16 +700,16 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" t="s">
-        <v>34</v>
-      </c>
-      <c r="S9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -720,16 +720,16 @@
       <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" t="s">
-        <v>34</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -740,13 +740,13 @@
       <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" t="s">
         <v>34</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,76 +19,76 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>元件类型</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
     <t>热收入</t>
   </si>
   <si>
+    <t>电收入</t>
+  </si>
+  <si>
     <t>设备型号</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>元件类型</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -563,27 +563,27 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
       <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="N2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -591,19 +591,19 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -611,19 +611,19 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -631,25 +631,25 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
         <v>34</v>
       </c>
       <c r="M6" t="s">
         <v>34</v>
       </c>
-      <c r="R6" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -657,19 +657,19 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -677,19 +677,19 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -697,19 +697,19 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -717,19 +717,19 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -737,16 +737,16 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" t="s">
-        <v>34</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y11" t="s">
         <v>34</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,76 +19,76 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
     <t>蒸汽负荷</t>
   </si>
   <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>元件类型</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
     <t>产热量</t>
   </si>
   <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>元件类型</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
     <t>氢气产量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>设备型号</t>
   </si>
   <si>
     <t>柴油</t>
@@ -563,27 +563,27 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -591,19 +591,19 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
         <v>34</v>
       </c>
       <c r="L4" t="s">
         <v>34</v>
       </c>
-      <c r="T4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="O4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -611,19 +611,19 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
         <v>34</v>
       </c>
       <c r="L5" t="s">
         <v>34</v>
       </c>
-      <c r="T5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="O5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -631,25 +631,25 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
       <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
         <v>34</v>
       </c>
       <c r="L6" t="s">
         <v>34</v>
       </c>
-      <c r="M6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="O6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -660,16 +660,16 @@
       <c r="G7" t="s">
         <v>34</v>
       </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
       <c r="L7" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y7" t="s">
+      <c r="O7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -680,16 +680,16 @@
       <c r="G8" t="s">
         <v>34</v>
       </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y8" t="s">
+      <c r="O8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -700,16 +700,16 @@
       <c r="G9" t="s">
         <v>34</v>
       </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
       <c r="L9" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="O9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -720,16 +720,16 @@
       <c r="G10" t="s">
         <v>34</v>
       </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
       <c r="L10" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" t="s">
-        <v>34</v>
-      </c>
-      <c r="T10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y10" t="s">
+      <c r="O10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -737,16 +737,16 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
       <c r="L11" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" t="s">
-        <v>34</v>
-      </c>
-      <c r="T11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="O11" t="s">
         <v>34</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,76 +19,76 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>元件类型</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
     <t>氢气收入</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>元件类型</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -563,24 +563,24 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>34</v>
       </c>
       <c r="U3" t="s">
@@ -591,19 +591,19 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -611,19 +611,19 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
       <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -631,25 +631,25 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -657,19 +657,19 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -677,19 +677,19 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -697,19 +697,19 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -717,19 +717,19 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -737,16 +737,16 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
         <v>34</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,76 +19,76 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>元件类型</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
     <t>平均效率/平均COP</t>
   </si>
   <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
     <t>氢气产量</t>
   </si>
   <si>
+    <t>电负荷</t>
+  </si>
+  <si>
     <t>产电量</t>
-  </si>
-  <si>
-    <t>元件类型</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
   </si>
   <si>
     <t>柴油</t>
@@ -563,27 +563,27 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
       <c r="S2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" t="s">
+      <c r="V2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -591,19 +591,19 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -611,19 +611,19 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -634,22 +634,22 @@
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="M6" t="s">
+      <c r="K6" t="s">
         <v>34</v>
       </c>
       <c r="S6" t="s">
         <v>34</v>
       </c>
+      <c r="U6" t="s">
+        <v>34</v>
+      </c>
       <c r="V6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -660,16 +660,16 @@
       <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -680,16 +680,16 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -700,16 +700,16 @@
       <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
       <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -720,16 +720,16 @@
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
       <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="M10" t="s">
-        <v>34</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -740,13 +740,13 @@
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="M11" t="s">
+      <c r="S11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" t="s">
         <v>34</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,76 +19,76 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>设备台数</t>
+  </si>
+  <si>
+    <t>氢气消耗量</t>
+  </si>
+  <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>元件类型</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>天然气消耗量</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
     <t>设备型号</t>
   </si>
   <si>
     <t>柴油消耗费用</t>
   </si>
   <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
     <t>蒸汽负荷</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
-    <t>设备台数</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>氢气消耗量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>元件类型</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>产电量</t>
   </si>
   <si>
     <t>柴油</t>
@@ -563,10 +563,10 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
         <v>34</v>
       </c>
       <c r="V2" t="s">
@@ -575,15 +575,15 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -594,16 +594,16 @@
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -614,16 +614,16 @@
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -634,22 +634,22 @@
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
         <v>34</v>
       </c>
       <c r="V6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -660,16 +660,16 @@
       <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -680,16 +680,16 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -700,16 +700,16 @@
       <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="S9" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -720,16 +720,16 @@
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -737,16 +737,16 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" t="s">
-        <v>34</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" t="s">
         <v>34</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -19,76 +19,76 @@
     <t>元件名称</t>
   </si>
   <si>
+    <t>冷负荷</t>
+  </si>
+  <si>
+    <t>蒸汽收入</t>
+  </si>
+  <si>
+    <t>产电量</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>产热量</t>
+  </si>
+  <si>
+    <t>设备维护费用</t>
+  </si>
+  <si>
+    <t>热负荷</t>
+  </si>
+  <si>
+    <t>柴油消耗费用</t>
+  </si>
+  <si>
     <t>设备台数</t>
   </si>
   <si>
+    <t>平均效率/平均COP</t>
+  </si>
+  <si>
+    <t>热收入</t>
+  </si>
+  <si>
+    <t>冷收入</t>
+  </si>
+  <si>
+    <t>蒸汽产量</t>
+  </si>
+  <si>
+    <t>氢气收入</t>
+  </si>
+  <si>
+    <t>电收入</t>
+  </si>
+  <si>
+    <t>电负荷</t>
+  </si>
+  <si>
+    <t>元件类型</t>
+  </si>
+  <si>
+    <t>产冷量</t>
+  </si>
+  <si>
+    <t>柴油消耗量</t>
+  </si>
+  <si>
+    <t>蒸汽负荷</t>
+  </si>
+  <si>
+    <t>天然气消耗费用</t>
+  </si>
+  <si>
+    <t>氢气产量</t>
+  </si>
+  <si>
     <t>氢气消耗量</t>
   </si>
   <si>
-    <t>平均效率/平均COP</t>
-  </si>
-  <si>
-    <t>元件类型</t>
-  </si>
-  <si>
-    <t>天然气消耗费用</t>
-  </si>
-  <si>
-    <t>热负荷</t>
-  </si>
-  <si>
-    <t>产电量</t>
-  </si>
-  <si>
-    <t>蒸汽产量</t>
-  </si>
-  <si>
-    <t>氢气产量</t>
-  </si>
-  <si>
-    <t>热收入</t>
-  </si>
-  <si>
-    <t>设备维护费用</t>
-  </si>
-  <si>
-    <t>电收入</t>
-  </si>
-  <si>
-    <t>产冷量</t>
-  </si>
-  <si>
-    <t>产热量</t>
-  </si>
-  <si>
-    <t>冷负荷</t>
-  </si>
-  <si>
     <t>天然气消耗量</t>
-  </si>
-  <si>
-    <t>冷收入</t>
-  </si>
-  <si>
-    <t>蒸汽收入</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>柴油消耗费用</t>
-  </si>
-  <si>
-    <t>柴油消耗量</t>
-  </si>
-  <si>
-    <t>电负荷</t>
-  </si>
-  <si>
-    <t>氢气收入</t>
-  </si>
-  <si>
-    <t>蒸汽负荷</t>
   </si>
   <si>
     <t>柴油</t>
@@ -563,27 +563,27 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -591,19 +591,19 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -611,19 +611,19 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -631,25 +631,25 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" t="s">
         <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
         <v>34</v>
       </c>
       <c r="T6" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -657,19 +657,19 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -677,19 +677,19 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -697,19 +697,19 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="L9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -717,19 +717,19 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -737,16 +737,16 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="L11" t="s">
-        <v>34</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" t="s">
         <v>34</v>
       </c>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,122 +441,122 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>氢气消耗量</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>热负荷</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>电负荷</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>产冷量</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
         </is>
       </c>
     </row>
@@ -569,17 +569,9 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -588,17 +580,25 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -617,11 +617,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -637,14 +633,18 @@
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -654,16 +654,24 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -672,27 +680,19 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -705,16 +705,24 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -723,27 +731,19 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -756,53 +756,53 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -815,27 +815,31 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
@@ -843,17 +847,13 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
@@ -866,27 +866,31 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
@@ -894,17 +898,13 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -917,27 +917,31 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
@@ -945,17 +949,13 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
@@ -968,27 +968,31 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
@@ -996,17 +1000,13 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
@@ -1019,7 +1019,11 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1030,12 +1034,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
@@ -1043,17 +1047,13 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,122 +441,122 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>产热量</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,11 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -580,27 +584,23 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -616,7 +616,11 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -633,17 +637,13 @@
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -653,31 +653,31 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -686,13 +686,13 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -704,31 +704,31 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -737,13 +737,13 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -755,19 +755,19 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>x</t>
@@ -776,7 +776,11 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
@@ -792,17 +796,13 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -814,24 +814,28 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
@@ -842,18 +846,14 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
@@ -865,24 +865,28 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
@@ -893,18 +897,14 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -916,24 +916,28 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
@@ -944,18 +948,14 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
@@ -967,24 +967,28 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
@@ -995,18 +999,14 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
@@ -1018,12 +1018,12 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1031,7 +1031,11 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
@@ -1042,18 +1046,14 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,122 +441,122 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>氢气消耗量</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>蒸汽负荷</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>天然气消耗量</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
         </is>
       </c>
     </row>
@@ -568,15 +568,19 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -587,20 +591,16 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -613,14 +613,18 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -630,19 +634,15 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
     </row>
@@ -652,7 +652,11 @@
           <t>光伏发电</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>x</t>
@@ -661,24 +665,24 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
@@ -686,11 +690,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -703,7 +703,11 @@
           <t>风力发电</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>x</t>
@@ -712,24 +716,24 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
@@ -737,11 +741,7 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
@@ -754,41 +754,41 @@
           <t>柴油发电</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
@@ -796,16 +796,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -813,7 +813,11 @@
           <t>锂电池</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>x</t>
@@ -822,41 +826,37 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -864,7 +864,11 @@
           <t>变压器</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>x</t>
@@ -873,41 +877,37 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -915,7 +915,11 @@
           <t>变流器</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>x</t>
@@ -924,41 +928,37 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -966,7 +966,11 @@
           <t>双向变流器</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>x</t>
@@ -975,41 +979,37 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1017,7 +1017,11 @@
           <t>传输线</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>x</t>
@@ -1031,32 +1035,28 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,122 +441,122 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>设备维护费用</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>设备型号</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
         </is>
       </c>
     </row>
@@ -568,20 +568,16 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -590,14 +586,18 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -609,20 +609,16 @@
           <t>电负荷</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -634,15 +630,19 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
     </row>
@@ -652,37 +652,25 @@
           <t>光伏发电</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
@@ -691,10 +679,22 @@
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -703,37 +703,25 @@
           <t>风力发电</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
@@ -742,10 +730,22 @@
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -754,58 +754,58 @@
           <t>柴油发电</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -813,31 +813,27 @@
           <t>锂电池</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -848,15 +844,19 @@
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -864,31 +864,27 @@
           <t>变压器</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -899,15 +895,19 @@
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -915,31 +915,27 @@
           <t>变流器</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -950,15 +946,19 @@
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -966,31 +966,27 @@
           <t>双向变流器</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1001,15 +997,19 @@
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1017,16 +1017,8 @@
           <t>传输线</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -1034,7 +1026,11 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1048,15 +1044,19 @@
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,122 +441,122 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>电负荷</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>蒸汽负荷</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>天然气消耗费用</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
         </is>
       </c>
     </row>
@@ -573,31 +573,31 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -609,40 +609,40 @@
           <t>电负荷</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
     </row>
@@ -654,48 +654,48 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -705,48 +705,48 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -755,57 +755,57 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -814,49 +814,49 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -865,49 +865,49 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -916,49 +916,49 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -967,49 +967,49 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1018,45 +1018,45 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,122 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>产冷量</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
         </is>
       </c>
     </row>
@@ -568,7 +578,11 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -576,11 +590,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>x</t>
@@ -589,19 +599,21 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -613,22 +625,18 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -642,9 +650,15 @@
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -654,48 +668,50 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -705,48 +721,50 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -760,52 +778,54 @@
           <t>x</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -820,43 +840,45 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -871,43 +893,45 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -922,43 +946,45 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -973,43 +999,45 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1024,24 +1052,24 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1050,13 +1078,15 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>蒸汽负荷</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>氢气消耗量</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>热负荷</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>柴油消耗量</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>产热量</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
         </is>
       </c>
     </row>
@@ -578,24 +578,20 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -603,16 +599,20 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -625,36 +625,36 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -666,31 +666,31 @@
           <t>光伏发电</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -703,12 +703,12 @@
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
@@ -719,31 +719,31 @@
           <t>风力发电</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -756,12 +756,12 @@
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -772,39 +772,35 @@
           <t>柴油发电</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -817,14 +813,18 @@
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -840,42 +840,42 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -893,42 +893,42 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -946,42 +946,42 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -999,42 +999,42 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -1052,38 +1052,38 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>产电量</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>设备台数</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
         </is>
       </c>
     </row>
@@ -582,37 +582,37 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -626,33 +626,33 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -671,37 +671,37 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
@@ -724,37 +724,37 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
@@ -783,35 +783,39 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
@@ -820,11 +824,7 @@
         </is>
       </c>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -833,42 +833,42 @@
           <t>锂电池</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr">
@@ -886,42 +886,42 @@
           <t>变压器</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr">
@@ -939,42 +939,42 @@
           <t>变流器</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr">
@@ -992,42 +992,42 @@
           <t>双向变流器</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr">
@@ -1045,21 +1045,25 @@
           <t>传输线</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1067,23 +1071,19 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>设备型号</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>电负荷</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>产冷量</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
         </is>
       </c>
     </row>
@@ -583,22 +583,22 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
           <t>x</t>
@@ -626,38 +626,38 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -666,16 +666,8 @@
           <t>光伏发电</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -683,17 +675,21 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
@@ -703,7 +699,11 @@
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr">
         <is>
           <t>x</t>
@@ -719,16 +719,8 @@
           <t>风力发电</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -736,17 +728,21 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
@@ -756,7 +752,11 @@
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr">
         <is>
           <t>x</t>
@@ -777,37 +777,33 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
@@ -817,7 +813,11 @@
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr">
         <is>
           <t>x</t>
@@ -838,39 +838,39 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr">
         <is>
           <t>x</t>
@@ -891,39 +891,39 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr">
         <is>
           <t>x</t>
@@ -944,39 +944,39 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr">
         <is>
           <t>x</t>
@@ -997,39 +997,39 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr">
         <is>
           <t>x</t>
@@ -1050,39 +1050,39 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,127 +441,127 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>平均效率/平均COP</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>天然气消耗量</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>蒸汽负荷</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>氢气消耗量</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>电收入</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>产电量</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -581,34 +581,34 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -630,34 +630,34 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -681,36 +681,36 @@
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -734,36 +734,36 @@
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -772,16 +772,16 @@
           <t>柴油发电</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -790,41 +790,41 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -833,11 +833,7 @@
           <t>锂电池</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -851,31 +847,35 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -886,11 +886,7 @@
           <t>变压器</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -904,31 +900,35 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -939,11 +939,7 @@
           <t>变流器</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -957,31 +953,35 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -992,11 +992,7 @@
           <t>双向变流器</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -1010,31 +1006,35 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -1045,11 +1045,7 @@
           <t>传输线</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -1063,26 +1059,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>冷收入</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
         </is>
       </c>
     </row>
@@ -577,39 +577,39 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -627,20 +627,24 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -652,11 +656,7 @@
         </is>
       </c>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
     </row>
@@ -669,48 +669,48 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -722,48 +722,48 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -775,56 +775,56 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -836,45 +836,45 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -889,45 +889,45 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -942,45 +942,45 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -995,45 +995,45 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -1049,40 +1049,40 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>氢气产量</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>柴油消耗费用</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>电收入</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
         </is>
       </c>
     </row>
@@ -577,18 +577,18 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -604,12 +604,12 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -627,24 +627,20 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -658,7 +654,11 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -678,38 +678,38 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
     </row>
@@ -731,38 +731,38 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
     </row>
@@ -780,50 +780,50 @@
           <t>x</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
     </row>
@@ -836,47 +836,47 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
     </row>
@@ -889,47 +889,47 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
     </row>
@@ -942,47 +942,47 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
     </row>
@@ -995,47 +995,47 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
     </row>
@@ -1049,42 +1049,42 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>蒸汽收入</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>冷收入</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>产电量</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>产冷量</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
         </is>
       </c>
     </row>
@@ -577,18 +577,18 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -596,19 +596,19 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -622,43 +622,43 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -666,40 +666,36 @@
           <t>光伏发电</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -710,7 +706,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -719,40 +719,36 @@
           <t>风力发电</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -763,7 +759,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -772,49 +772,45 @@
           <t>柴油发电</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -824,7 +820,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -833,40 +833,40 @@
           <t>锂电池</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -886,40 +886,40 @@
           <t>变压器</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -939,40 +939,40 @@
           <t>变流器</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -992,40 +992,40 @@
           <t>双向变流器</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -1046,35 +1046,35 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>设备台数</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>蒸汽收入</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
         </is>
       </c>
     </row>
@@ -576,14 +576,18 @@
           <t>柴油</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -594,19 +598,15 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -636,27 +636,27 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
     </row>
@@ -666,51 +666,51 @@
           <t>光伏发电</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -719,51 +719,51 @@
           <t>风力发电</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -777,20 +777,32 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -800,31 +812,19 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -833,25 +833,29 @@
           <t>锂电池</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -861,22 +865,18 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
     </row>
@@ -886,25 +886,29 @@
           <t>变压器</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -914,22 +918,18 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
     </row>
@@ -939,25 +939,29 @@
           <t>变流器</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -967,22 +971,18 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
     </row>
@@ -992,25 +992,29 @@
           <t>双向变流器</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1020,22 +1024,18 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
     </row>
@@ -1046,45 +1046,45 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>柴油消耗量</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>元件类型</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
         </is>
       </c>
     </row>
@@ -576,39 +576,39 @@
           <t>柴油</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -624,11 +624,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -648,15 +644,19 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
     </row>
@@ -668,38 +668,38 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
@@ -721,38 +721,38 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
@@ -772,32 +772,32 @@
           <t>柴油发电</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>x</t>
@@ -807,13 +807,13 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
@@ -836,37 +836,37 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
@@ -889,37 +889,37 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
@@ -942,37 +942,37 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
@@ -995,37 +995,37 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
@@ -1048,26 +1048,26 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>自来水消耗费用</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
         </is>
       </c>
     </row>
@@ -578,37 +578,37 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -632,29 +632,29 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -666,40 +666,40 @@
           <t>光伏发电</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
@@ -719,40 +719,40 @@
           <t>风力发电</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
@@ -772,7 +772,11 @@
           <t>柴油发电</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
@@ -781,39 +785,31 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
@@ -822,7 +818,11 @@
         </is>
       </c>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -833,40 +833,36 @@
           <t>锂电池</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
@@ -875,7 +871,11 @@
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -886,40 +886,36 @@
           <t>变压器</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
@@ -928,7 +924,11 @@
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -939,40 +939,36 @@
           <t>变流器</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
@@ -981,7 +977,11 @@
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -992,40 +992,36 @@
           <t>双向变流器</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
@@ -1034,7 +1030,11 @@
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -1045,32 +1045,28 @@
           <t>传输线</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1083,7 +1079,11 @@
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>设备维护费用</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>柴油消耗量</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>热收入</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>电负荷</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
         </is>
       </c>
     </row>
@@ -578,30 +578,26 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -609,7 +605,11 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -624,41 +624,41 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -666,47 +666,47 @@
           <t>光伏发电</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -719,47 +719,47 @@
           <t>风力发电</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -772,58 +772,58 @@
           <t>柴油发电</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
     </row>
@@ -833,50 +833,50 @@
           <t>锂电池</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
     </row>
@@ -886,50 +886,50 @@
           <t>变压器</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
     </row>
@@ -939,50 +939,50 @@
           <t>变流器</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
     </row>
@@ -992,50 +992,50 @@
           <t>双向变流器</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
     </row>
@@ -1045,46 +1045,46 @@
           <t>传输线</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
     </row>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>氢气产量</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>产冷量</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
         </is>
       </c>
     </row>
@@ -578,40 +578,40 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
     </row>
@@ -624,21 +624,21 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -652,13 +652,13 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -667,49 +667,49 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
     </row>
@@ -720,49 +720,49 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
     </row>
@@ -773,51 +773,51 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
@@ -836,36 +836,36 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
@@ -889,36 +889,36 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
@@ -942,36 +942,36 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -995,36 +995,36 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
@@ -1048,32 +1048,32 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>天然气消耗费用</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>柴油消耗量</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>热收入</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
         </is>
       </c>
     </row>
@@ -578,11 +578,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -590,15 +586,15 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
@@ -612,7 +608,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -625,24 +625,24 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -652,12 +652,12 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -667,50 +667,50 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -720,50 +720,50 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -773,11 +773,7 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>x</t>
@@ -788,34 +784,34 @@
           <t>x</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -824,7 +820,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -835,49 +835,49 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -888,49 +888,49 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -941,49 +941,49 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -994,49 +994,49 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1047,45 +1047,45 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr"/>
     </row>
   </sheetData>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>冷收入</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>电收入</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
         </is>
       </c>
     </row>
@@ -582,35 +582,35 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
@@ -625,19 +625,11 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -647,7 +639,11 @@
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
@@ -658,7 +654,11 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -671,28 +671,28 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
@@ -703,14 +703,14 @@
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -724,28 +724,28 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
@@ -756,14 +756,14 @@
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -777,26 +777,26 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -804,7 +804,11 @@
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
@@ -813,18 +817,14 @@
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -838,26 +838,18 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -865,19 +857,27 @@
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -891,26 +891,18 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -918,19 +910,27 @@
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -944,26 +944,18 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -971,19 +963,27 @@
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -997,26 +997,18 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1024,19 +1016,27 @@
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1050,26 +1050,14 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1077,15 +1065,27 @@
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr"/>
     </row>
   </sheetData>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>氢气收入</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>氢气消耗量</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>电负荷</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
         </is>
       </c>
     </row>
@@ -578,35 +578,35 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -623,7 +623,11 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -633,32 +637,28 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -668,18 +668,22 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>x</t>
@@ -688,29 +692,25 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -721,18 +721,22 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>x</t>
@@ -741,29 +745,25 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -774,22 +774,22 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>x</t>
@@ -797,35 +797,35 @@
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -835,50 +835,50 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -888,50 +888,50 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -941,50 +941,50 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -994,50 +994,50 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1047,10 +1047,18 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1059,34 +1067,26 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>自来水消耗费用</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>元件类型</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>冷收入</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>柴油消耗量</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>产冷量</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
         </is>
       </c>
     </row>
@@ -578,40 +578,40 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
     </row>
@@ -621,13 +621,13 @@
           <t>电负荷</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -637,25 +637,25 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
@@ -668,11 +668,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
@@ -681,7 +677,11 @@
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
@@ -695,22 +695,22 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -721,11 +721,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
@@ -734,7 +730,11 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
@@ -748,22 +748,22 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -774,11 +774,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
@@ -787,7 +783,11 @@
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
@@ -797,20 +797,20 @@
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -820,12 +820,12 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -835,11 +835,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
@@ -851,34 +847,38 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -888,11 +888,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
@@ -904,34 +900,38 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -941,11 +941,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
@@ -957,34 +953,38 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -994,11 +994,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
@@ -1010,34 +1006,38 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1047,46 +1047,46 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>电收入</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>热收入</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>产电量</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>柴油消耗费用</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
         </is>
       </c>
     </row>
@@ -584,25 +584,21 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -612,7 +608,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -621,42 +621,42 @@
           <t>电负荷</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
     </row>
@@ -671,24 +671,16 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -701,16 +693,24 @@
           <t>x</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -724,24 +724,16 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -754,16 +746,24 @@
           <t>x</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -776,55 +776,55 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -837,47 +837,47 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -890,47 +890,47 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -943,47 +943,47 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -996,47 +996,47 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1049,44 +1049,150 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>氢负荷</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>电解槽</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>冷收入</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>冷负荷</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>产热量</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>电负荷</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>蒸汽负荷</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>电收入</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,11 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -598,21 +602,17 @@
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -626,11 +626,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -638,27 +634,31 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -670,46 +670,46 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
     </row>
@@ -723,46 +723,46 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
     </row>
@@ -782,18 +782,26 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
@@ -801,29 +809,21 @@
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
     </row>
@@ -843,14 +843,18 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -858,25 +862,21 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
     </row>
@@ -896,14 +896,18 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -911,25 +915,21 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
     </row>
@@ -949,14 +949,18 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -964,25 +968,21 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
     </row>
@@ -1002,14 +1002,18 @@
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1017,25 +1021,21 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
     </row>
@@ -1049,20 +1049,20 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1070,21 +1070,21 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
     </row>
@@ -1101,35 +1101,35 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
     </row>
@@ -1142,25 +1142,21 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1168,31 +1164,35 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T13" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y13" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="AA13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>蒸汽产量</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗费用</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>电收入</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>天然气消耗量</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>天然气消耗费用</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>平均效率/平均COP</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗费用</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>热负荷</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽产量</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>电负荷</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>电收入</t>
         </is>
       </c>
     </row>
@@ -578,36 +578,36 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -624,13 +624,21 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -639,19 +647,11 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
@@ -670,43 +670,43 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -723,43 +723,43 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -776,32 +776,24 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
@@ -814,15 +806,23 @@
           <t>x</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -837,45 +837,45 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -890,45 +890,45 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -943,45 +943,45 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -996,45 +996,45 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -1051,39 +1051,39 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
@@ -1099,13 +1099,13 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -1115,16 +1115,16 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
@@ -1136,44 +1136,52 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>电解槽</t>
+          <t>燃气发电机</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
@@ -1181,18 +1189,71 @@
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>电解槽</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/microgrid_base/sim_param_export.xlsx
+++ b/microgrid_base/sim_param_export.xlsx
@@ -441,132 +441,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>自来水消耗费用</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>自来水消耗量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>设备维护费用</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽收入</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>蒸汽负荷</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>氢气产量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>产冷量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>产电量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>电负荷</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>产热量</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>热负荷</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>平均效率/平均COP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>柴油消耗量</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>冷负荷</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>氢气收入</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>元件类型</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>蒸汽产量</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>氢气产量</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗费用</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>柴油消耗费用</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>冷收入</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>设备台数</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>天然气消耗量</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>热收入</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>氢气消耗量</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>设备型号</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>电收入</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>冷负荷</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>氢气消耗量</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗费用</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>冷收入</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽收入</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>元件类型</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>产冷量</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>自来水消耗量</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>设备台数</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>氢气收入</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗量</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>设备维护费用</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>产热量</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>设备型号</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>热收入</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>柴油消耗量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>产电量</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>天然气消耗费用</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>平均效率/平均COP</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>热负荷</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>蒸汽负荷</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>电负荷</t>
         </is>
       </c>
     </row>
@@ -578,36 +578,36 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -624,27 +624,27 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -668,25 +668,25 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
@@ -695,11 +695,7 @@
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
@@ -710,7 +706,11 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -721,25 +721,25 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
@@ -748,11 +748,7 @@
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
@@ -763,7 +759,11 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -774,20 +774,28 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>x</t>
@@ -801,30 +809,22 @@
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -835,25 +835,25 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -888,25 +888,25 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
@@ -915,22 +915,22 @@
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -941,25 +941,25 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -994,25 +994,25 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
@@ -1021,22 +1021,22 @@
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1047,20 +1047,24 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1070,22 +1074,18 @@
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1099,29 +1099,25 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1129,7 +1125,11 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
     </row>
@@ -1141,12 +1141,20 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -1155,32 +1163,16 @@
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
@@ -1188,10 +1180,18 @@
           <t>x</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1201,18 +1201,26 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>x</t>
@@ -1220,11 +1228,7 @@
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
@@ -1232,28 +1236,24 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
